--- a/Tester Results/TEST_GLM_TABLE.xlsx
+++ b/Tester Results/TEST_GLM_TABLE.xlsx
@@ -552,67 +552,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.352379210689119e-18</v>
+        <v>7.985720451708375e-18</v>
       </c>
       <c r="C2" t="n">
-        <v>7.317570829442834e-06</v>
+        <v>0.0001000769650044792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9230262654776202</v>
+        <v>0.6683886250799669</v>
       </c>
       <c r="E2" t="n">
-        <v>0.732574020541097</v>
+        <v>0.9047753617887724</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8265933466858251</v>
+        <v>0.8327056364760048</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6929017116069575</v>
+        <v>0.5565824650942856</v>
       </c>
       <c r="H2" t="n">
-        <v>0.868627553435851</v>
+        <v>0.7676176443735369</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7934165332899639</v>
+        <v>0.992326740186214</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1890957068599317</v>
+        <v>0.2427711145223551</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2351741521970458</v>
+        <v>0.4060235651730132</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2347036548785706</v>
+        <v>0.4447740396687111</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3178792322172488</v>
+        <v>0.4793335286592828</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2282613399870474</v>
+        <v>0.5187882833856901</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2814968742070766</v>
+        <v>0.4810630054064726</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2204962807053855</v>
+        <v>0.330429889411633</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.203478633896962</v>
+        <v>0.4316527563557564</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2105233948020111</v>
+        <v>0.5058178246372492</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2054900300326506</v>
+        <v>0.4681871046562327</v>
       </c>
       <c r="T2" t="n">
-        <v>0.008833598932889821</v>
+        <v>0.04729300264716872</v>
       </c>
       <c r="U2" t="n">
-        <v>1.186292824820606e-18</v>
+        <v>8.887395411605914e-19</v>
       </c>
       <c r="V2" t="n">
-        <v>1.754659468876018e-06</v>
+        <v>4.139161972636311e-11</v>
       </c>
     </row>
     <row r="3">
@@ -622,67 +622,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.5230259138701e-18</v>
+        <v>2.881059432383614e-20</v>
       </c>
       <c r="C3" t="n">
-        <v>4.026825373150821e-09</v>
+        <v>9.192938627272448e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8942425193305444</v>
+        <v>0.9044543795128401</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5196348501662622</v>
+        <v>0.6857116125642075</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5657443606597998</v>
+        <v>0.5032834514357978</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8467161489330614</v>
+        <v>0.800260162688039</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9940562824527893</v>
+        <v>0.9688444758471388</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6682519357153121</v>
+        <v>0.7652990112723463</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1044378991569895</v>
+        <v>0.1133509186535721</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1214258898025027</v>
+        <v>0.1579812195996347</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1564589735607563</v>
+        <v>0.2225295456529744</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1198005202791058</v>
+        <v>0.1738957980271216</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1253200646891701</v>
+        <v>0.2539441463819709</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1252897337552507</v>
+        <v>0.1929912518661896</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09562675032338082</v>
+        <v>0.165405359663531</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1329062737885959</v>
+        <v>0.2353433340135165</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0850952188848467</v>
+        <v>0.1906973973297687</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09028608182467489</v>
+        <v>0.2149738935988811</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001115162737417431</v>
+        <v>0.005206012867619276</v>
       </c>
       <c r="U3" t="n">
-        <v>1.953991365517625e-35</v>
+        <v>5.040322510300809e-33</v>
       </c>
       <c r="V3" t="n">
-        <v>1.371159283269439e-06</v>
+        <v>2.004935471430351e-13</v>
       </c>
     </row>
     <row r="4">
@@ -692,67 +692,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.182816288055107e-21</v>
+        <v>5.537709910156304e-25</v>
       </c>
       <c r="C4" t="n">
-        <v>5.227890040974694e-16</v>
+        <v>2.524652071849339e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.880205226067079</v>
+        <v>0.8770672689597531</v>
       </c>
       <c r="E4" t="n">
-        <v>0.405870580528224</v>
+        <v>0.4821106777989222</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4573472923633559</v>
+        <v>0.3917216472188526</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8188853485206447</v>
+        <v>0.9245286878763932</v>
       </c>
       <c r="H4" t="n">
-        <v>0.884361638952859</v>
+        <v>0.8387633316278917</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6226973237769943</v>
+        <v>0.6712692810110672</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09889217919113852</v>
+        <v>0.08539621490894032</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1025479490842246</v>
+        <v>0.08589747403552649</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1354463481945954</v>
+        <v>0.1354605806541475</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09572568603715417</v>
+        <v>0.1042754438970071</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1078941279648439</v>
+        <v>0.1660910053643732</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09023635719365274</v>
+        <v>0.1072282228019529</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09136545183045294</v>
+        <v>0.1308820165495146</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1943729554908239</v>
+        <v>0.2067485153718752</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07967533429578201</v>
+        <v>0.1341457576953057</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07147525241052061</v>
+        <v>0.1113037170933485</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0008334895511477013</v>
+        <v>0.001783251267607191</v>
       </c>
       <c r="U4" t="n">
-        <v>1.247356848178581e-54</v>
+        <v>8.270574016290035e-49</v>
       </c>
       <c r="V4" t="n">
-        <v>6.418088239345915e-06</v>
+        <v>8.903939292390426e-15</v>
       </c>
     </row>
     <row r="5">
@@ -762,67 +762,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05429501005449679</v>
+        <v>0.09093521525652967</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001102856102940671</v>
+        <v>0.001162627515801274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8463022039867467</v>
+        <v>0.9645388028330022</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7832187099082426</v>
+        <v>0.6322876399121994</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5131242472728103</v>
+        <v>0.4113855118694248</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8031034017929031</v>
+        <v>0.9669684514885055</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7080315416940797</v>
+        <v>0.6993044446589063</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7339826799501119</v>
+        <v>0.7607992781442277</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8463340441446068</v>
+        <v>0.7844244945315254</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7317523900795568</v>
+        <v>0.531078556748204</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7996376954806477</v>
+        <v>0.7687906264273019</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9379769665170959</v>
+        <v>0.9088851595551664</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8979445468401543</v>
+        <v>0.9149070619196777</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4346840894967606</v>
+        <v>0.3426666060866215</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9499321706564698</v>
+        <v>0.9038562479833077</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7888470391241886</v>
+        <v>0.8635179134628745</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5865741567732503</v>
+        <v>0.895576053185705</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7715701980296891</v>
+        <v>0.693035700587866</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6036065227246754</v>
+        <v>0.4204763185495483</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03737044252852e-22</v>
+        <v>1.300700635717633e-20</v>
       </c>
       <c r="V5" t="n">
-        <v>1.779136599583741e-27</v>
+        <v>8.669010199122036e-53</v>
       </c>
     </row>
   </sheetData>
